--- a/data/trans_orig/P1411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC82F4E1-7F61-4F4F-BBC2-94DFC2AF41C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47E857E-86CE-4F30-B488-70C5D04BC819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D05034C8-7AD7-4968-ACAE-7E0F4F79B570}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8C6CE30-E6DD-4B45-8A2B-43978872731D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,28 +94,28 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>95,61%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,10 +166,10 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -178,31 +178,31 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,1%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -211,10 +211,10 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -235,241 +235,253 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -478,7 +490,10 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -487,28 +502,31 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>97,46%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>98,46%</t>
@@ -517,16 +535,19 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
@@ -986,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A7810-F95E-4BA8-97D1-2102E0CBA593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C32238-EAE0-4C17-9C35-F034E5FBC402}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1445,7 +1466,7 @@
         <v>3460</v>
       </c>
       <c r="N10" s="7">
-        <v>3687144</v>
+        <v>3687143</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1496,7 +1517,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1782,10 +1803,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1794,13 +1815,13 @@
         <v>38176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -1809,13 +1830,13 @@
         <v>108813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1851,13 @@
         <v>3349146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>3255</v>
@@ -1845,28 +1866,28 @@
         <v>3511661</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6393</v>
       </c>
       <c r="N18" s="7">
-        <v>6860805</v>
+        <v>6860806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1929,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1922,7 +1943,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C65164D-EE0A-47F0-AFC6-5F893B097854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483130C5-F8C8-44FA-8E64-B57C55A3667B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1958,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2071,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2086,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2116,13 +2137,13 @@
         <v>34047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -2131,13 +2152,13 @@
         <v>32074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -2146,13 +2167,13 @@
         <v>66121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2188,13 @@
         <v>720300</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>864</v>
@@ -2182,13 +2203,13 @@
         <v>962586</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1590</v>
@@ -2197,13 +2218,13 @@
         <v>1682886</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2343,13 @@
         <v>30871</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2340,7 +2361,7 @@
         <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>46</v>
@@ -2352,13 +2373,13 @@
         <v>40054</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2394,13 @@
         <v>2045514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>1900</v>
@@ -2388,13 +2409,13 @@
         <v>1979117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>3823</v>
@@ -2403,13 +2424,13 @@
         <v>4024631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2498,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2528,13 +2549,13 @@
         <v>1857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2543,13 +2564,13 @@
         <v>3294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2558,13 +2579,13 @@
         <v>5150</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,10 +2600,10 @@
         <v>545029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>76</v>
@@ -2594,13 +2615,13 @@
         <v>545846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>1022</v>
@@ -2609,13 +2630,13 @@
         <v>1090876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2755,13 @@
         <v>66775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2749,13 +2770,13 @@
         <v>44551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -2764,13 +2785,13 @@
         <v>111325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2806,13 @@
         <v>3310843</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>3287</v>
@@ -2800,13 +2821,13 @@
         <v>3487549</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>6435</v>
@@ -2815,13 +2836,13 @@
         <v>6798393</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,7 +2898,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A68580-325A-413E-82EA-BEEBF31E759C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821F4244-BC9E-441B-A41A-371C13991DFA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2913,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3023,7 +3044,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3038,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3053,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3077,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3092,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3128,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3143,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3229,7 +3250,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3238,13 +3259,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3259,7 +3280,7 @@
         <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3298,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3313,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3364,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,7 +3412,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3435,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3465,7 +3486,7 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3489,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3519,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3570,7 +3591,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3656,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3656,7 +3677,7 @@
         <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3665,13 +3686,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3710,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3725,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3776,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3809,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3818,7 +3839,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3832,7 +3853,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47E857E-86CE-4F30-B488-70C5D04BC819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{301ED55F-7317-4BAF-90F2-08FF14762059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8C6CE30-E6DD-4B45-8A2B-43978872731D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A310B87-4C53-47C0-8EC8-7758CE3CC739}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="184">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,28 +94,28 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>95,61%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,421 +166,415 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1007,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C32238-EAE0-4C17-9C35-F034E5FBC402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065AD65-3390-4D12-AEE8-5E7263DD28E6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1260,7 +1254,7 @@
         <v>2090</v>
       </c>
       <c r="N6" s="7">
-        <v>2241248</v>
+        <v>2241247</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1311,7 +1305,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1466,7 +1460,7 @@
         <v>3460</v>
       </c>
       <c r="N10" s="7">
-        <v>3687143</v>
+        <v>3687144</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1517,7 +1511,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1878,7 +1872,7 @@
         <v>6393</v>
       </c>
       <c r="N18" s="7">
-        <v>6860806</v>
+        <v>6860805</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -1929,7 +1923,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1962,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483130C5-F8C8-44FA-8E64-B57C55A3667B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797ECBAD-82C9-4D45-83F5-26159D8DD998}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,10 +2355,10 @@
         <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -2376,10 +2370,10 @@
         <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2388,13 @@
         <v>2045514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>1900</v>
@@ -2409,13 +2403,13 @@
         <v>1979117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>3823</v>
@@ -2424,13 +2418,13 @@
         <v>4024631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2519,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2534,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2543,13 @@
         <v>1857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2564,13 +2558,13 @@
         <v>3294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2579,13 +2573,13 @@
         <v>5150</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2597,7 @@
         <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>76</v>
@@ -2615,13 +2609,13 @@
         <v>545846</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>1022</v>
@@ -2630,13 +2624,13 @@
         <v>1090876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2749,13 @@
         <v>66775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2770,13 +2764,13 @@
         <v>44551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -2785,13 +2779,13 @@
         <v>111325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2800,13 @@
         <v>3310843</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H18" s="7">
         <v>3287</v>
@@ -2821,13 +2815,13 @@
         <v>3487549</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>6435</v>
@@ -2836,13 +2830,13 @@
         <v>6798393</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821F4244-BC9E-441B-A41A-371C13991DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E71F4A-DC89-4B2E-8BEB-AC6369B3D3B9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2934,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3044,7 +3038,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3059,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3074,7 +3068,7 @@
         <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3098,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3113,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3149,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3164,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3250,7 +3244,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3265,7 +3259,7 @@
         <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3280,7 +3274,7 @@
         <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3319,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3334,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3385,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3471,7 +3465,7 @@
         <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3486,7 +3480,7 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3510,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3525,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3540,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3576,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3591,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3656,7 @@
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3677,7 +3671,7 @@
         <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3692,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3731,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3746,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3797,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1EC983-B47D-40B7-B664-DA6590B7A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A78DA9D-3ED2-4376-978D-9E555BE7C250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85997E5C-99AB-4C57-B860-5BB5055E6780}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF76595-A248-44BD-97BB-DF5389369EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7075A89D-C788-471D-968D-912F24BC4BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2140A3D-9B12-4A58-A71D-3BEEE4383E9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,7 +1246,7 @@
         <v>3460</v>
       </c>
       <c r="N8" s="7">
-        <v>3687144</v>
+        <v>3687143</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1297,7 +1297,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1401,7 +1401,7 @@
         <v>843</v>
       </c>
       <c r="N11" s="7">
-        <v>932414</v>
+        <v>932415</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1452,7 +1452,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1556,7 +1556,7 @@
         <v>6393</v>
       </c>
       <c r="N14" s="7">
-        <v>6860805</v>
+        <v>6860806</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1607,7 +1607,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1640,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353CC955-7594-44CA-B346-AB19A8B828CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB2924-764F-43CA-87C3-E86A35C488B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2152,7 +2152,7 @@
         <v>1022</v>
       </c>
       <c r="N11" s="7">
-        <v>1090876</v>
+        <v>1090877</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>129</v>
@@ -2203,7 +2203,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
